--- a/data/Simulations/HR1_2/A_BJ_35_1/A_BJ_35_1_2020.xlsx
+++ b/data/Simulations/HR1_2/A_BJ_35_1/A_BJ_35_1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\Simulations\HR1_2\A_BJ_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA2189B-B6E9-4C72-8866-536FF015D0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F140288-5650-4B23-81D1-5AAED3471671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -153,11 +153,41 @@
       <sheetName val="Flexibility, Summer"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="B2">
+            <v>30.67</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>18.309999999999999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2">
+            <v>44</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>5.69</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="B2">
@@ -234,10 +264,34 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2">
+            <v>35.549999999999997</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="B2">
+            <v>6.52</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="2">
+          <cell r="B2">
+            <v>36.4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="2">
+          <cell r="B2">
+            <v>27.98</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10">
         <row r="2">
           <cell r="B2">
@@ -585,7 +639,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,7 +2106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A484D1A0-36E3-445D-9075-A9778824F043}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -11822,7 +11876,7 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="A1:Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21191,7 +21245,7 @@
   <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21590,8 +21644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F226902C-C30A-4C6B-B78C-A105C1E2E2D4}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:Y14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
